--- a/data/trans_bre/BESCORE_R2-Urba-trans_bre.xlsx
+++ b/data/trans_bre/BESCORE_R2-Urba-trans_bre.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -125,7 +128,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -138,6 +141,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -504,7 +513,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P12"/>
+  <dimension ref="A1:P16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -666,479 +675,307 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>8,16</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>6,66</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>7,81</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>8,44</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>5,07</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>4,9</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>7,45</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>66,12%</t>
-        </is>
-      </c>
-      <c r="K4" s="2" t="inlineStr">
-        <is>
-          <t>55,15%</t>
-        </is>
-      </c>
-      <c r="L4" s="2" t="inlineStr">
-        <is>
-          <t>73,51%</t>
-        </is>
-      </c>
-      <c r="M4" s="2" t="inlineStr">
-        <is>
-          <t>81,87%</t>
-        </is>
-      </c>
-      <c r="N4" s="2" t="inlineStr">
-        <is>
-          <t>40,73%</t>
-        </is>
-      </c>
-      <c r="O4" s="2" t="inlineStr">
-        <is>
-          <t>40,9%</t>
-        </is>
-      </c>
-      <c r="P4" s="2" t="inlineStr">
-        <is>
-          <t>63,31%</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>8.159062079853726</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>7.614684297107943</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>7.905220653243441</v>
+      </c>
+      <c r="F4" s="5" t="n">
+        <v>8.391864813873317</v>
+      </c>
+      <c r="G4" s="5" t="n">
+        <v>5.173761111858044</v>
+      </c>
+      <c r="H4" s="5" t="n">
+        <v>4.898378847710791</v>
+      </c>
+      <c r="I4" s="5" t="n">
+        <v>7.4298358111035</v>
+      </c>
+      <c r="J4" s="6" t="n">
+        <v>0.661211374993209</v>
+      </c>
+      <c r="K4" s="6" t="n">
+        <v>0.6608681088693413</v>
+      </c>
+      <c r="L4" s="6" t="n">
+        <v>0.7502784161721673</v>
+      </c>
+      <c r="M4" s="6" t="n">
+        <v>0.8111348524288696</v>
+      </c>
+      <c r="N4" s="6" t="n">
+        <v>0.4110175715230471</v>
+      </c>
+      <c r="O4" s="6" t="n">
+        <v>0.4089534179434213</v>
+      </c>
+      <c r="P4" s="6" t="n">
+        <v>0.6347111520826602</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>3,33; 11,89</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>1,5; 10,9</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>3,67; 11,35</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>4,5; 12,07</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>0,8; 9,8</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>1,47; 8,36</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>3,41; 11,44</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>19,45; 119,87</t>
-        </is>
-      </c>
-      <c r="K5" s="2" t="inlineStr">
-        <is>
-          <t>9,93; 115,3</t>
-        </is>
-      </c>
-      <c r="L5" s="2" t="inlineStr">
-        <is>
-          <t>27,39; 130,46</t>
-        </is>
-      </c>
-      <c r="M5" s="2" t="inlineStr">
-        <is>
-          <t>35,51; 141,86</t>
-        </is>
-      </c>
-      <c r="N5" s="2" t="inlineStr">
-        <is>
-          <t>5,48; 99,29</t>
-        </is>
-      </c>
-      <c r="O5" s="2" t="inlineStr">
-        <is>
-          <t>10,34; 78,91</t>
-        </is>
-      </c>
-      <c r="P5" s="2" t="inlineStr">
-        <is>
-          <t>24,01; 112,31</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>3.332310019324489</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>2.761112436465422</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>3.737846069039434</v>
+      </c>
+      <c r="F5" s="5" t="n">
+        <v>4.490567011211696</v>
+      </c>
+      <c r="G5" s="5" t="n">
+        <v>0.8592438607780214</v>
+      </c>
+      <c r="H5" s="5" t="n">
+        <v>1.472519171147336</v>
+      </c>
+      <c r="I5" s="5" t="n">
+        <v>3.401657274750103</v>
+      </c>
+      <c r="J5" s="6" t="n">
+        <v>0.1944835208802542</v>
+      </c>
+      <c r="K5" s="6" t="n">
+        <v>0.1789442286600983</v>
+      </c>
+      <c r="L5" s="6" t="n">
+        <v>0.2807734072464122</v>
+      </c>
+      <c r="M5" s="6" t="n">
+        <v>0.339789349582938</v>
+      </c>
+      <c r="N5" s="6" t="n">
+        <v>0.05795265214884943</v>
+      </c>
+      <c r="O5" s="6" t="n">
+        <v>0.1034215798235486</v>
+      </c>
+      <c r="P5" s="6" t="n">
+        <v>0.2370567299897024</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>11.89050379055632</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>11.96257677547788</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>11.4880632534096</v>
+      </c>
+      <c r="F6" s="5" t="n">
+        <v>12.17150863078554</v>
+      </c>
+      <c r="G6" s="5" t="n">
+        <v>10.07887745165976</v>
+      </c>
+      <c r="H6" s="5" t="n">
+        <v>8.362932241991695</v>
+      </c>
+      <c r="I6" s="5" t="n">
+        <v>11.40988354548729</v>
+      </c>
+      <c r="J6" s="6" t="n">
+        <v>1.198660866476347</v>
+      </c>
+      <c r="K6" s="6" t="n">
+        <v>1.296819258822397</v>
+      </c>
+      <c r="L6" s="6" t="n">
+        <v>1.337066823564425</v>
+      </c>
+      <c r="M6" s="6" t="n">
+        <v>1.460694966870983</v>
+      </c>
+      <c r="N6" s="6" t="n">
+        <v>0.9871357486071922</v>
+      </c>
+      <c r="O6" s="6" t="n">
+        <v>0.7890788943403478</v>
+      </c>
+      <c r="P6" s="6" t="n">
+        <v>1.116793031783528</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>Intermedio</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>12,56</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>11,5</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>9,73</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>5,72</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>11,38</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>10,0</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>3,44</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>173,47%</t>
-        </is>
-      </c>
-      <c r="K6" s="2" t="inlineStr">
-        <is>
-          <t>125,98%</t>
-        </is>
-      </c>
-      <c r="L6" s="2" t="inlineStr">
-        <is>
-          <t>104,5%</t>
-        </is>
-      </c>
-      <c r="M6" s="2" t="inlineStr">
-        <is>
-          <t>44,93%</t>
-        </is>
-      </c>
-      <c r="N6" s="2" t="inlineStr">
-        <is>
-          <t>133,23%</t>
-        </is>
-      </c>
-      <c r="O6" s="2" t="inlineStr">
-        <is>
-          <t>99,35%</t>
-        </is>
-      </c>
-      <c r="P6" s="2" t="inlineStr">
-        <is>
-          <t>34,94%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>7,97; 17,06</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>6,81; 16,51</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>5,31; 13,95</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>0,16; 11,04</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>6,73; 15,97</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>2,74; 17,59</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>-1,61; 9,34</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>76,14; 312,89</t>
-        </is>
-      </c>
-      <c r="K7" s="2" t="inlineStr">
-        <is>
-          <t>53,62; 226,28</t>
-        </is>
-      </c>
-      <c r="L7" s="2" t="inlineStr">
-        <is>
-          <t>43,64; 189,27</t>
-        </is>
-      </c>
-      <c r="M7" s="2" t="inlineStr">
-        <is>
-          <t>-4,11; 115,07</t>
-        </is>
-      </c>
-      <c r="N7" s="2" t="inlineStr">
-        <is>
-          <t>60,68; 251,29</t>
-        </is>
-      </c>
-      <c r="O7" s="2" t="inlineStr">
-        <is>
-          <t>19,03; 238,01</t>
-        </is>
-      </c>
-      <c r="P7" s="2" t="inlineStr">
-        <is>
-          <t>-13,61; 136,55</t>
-        </is>
+      <c r="C7" s="5" t="n">
+        <v>12.56433145789454</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>10.06080565943099</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>9.497563034094123</v>
+      </c>
+      <c r="F7" s="5" t="n">
+        <v>5.671600670758906</v>
+      </c>
+      <c r="G7" s="5" t="n">
+        <v>11.53393602989056</v>
+      </c>
+      <c r="H7" s="5" t="n">
+        <v>9.99727496270352</v>
+      </c>
+      <c r="I7" s="5" t="n">
+        <v>3.256306260170368</v>
+      </c>
+      <c r="J7" s="6" t="n">
+        <v>1.734704247794835</v>
+      </c>
+      <c r="K7" s="6" t="n">
+        <v>1.044868174345421</v>
+      </c>
+      <c r="L7" s="6" t="n">
+        <v>1.013490305283781</v>
+      </c>
+      <c r="M7" s="6" t="n">
+        <v>0.4466154661124922</v>
+      </c>
+      <c r="N7" s="6" t="n">
+        <v>1.353211023455271</v>
+      </c>
+      <c r="O7" s="6" t="n">
+        <v>0.9934808014867152</v>
+      </c>
+      <c r="P7" s="6" t="n">
+        <v>0.3276971660866635</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Rural</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>11,14</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>11,71</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>12,64</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>9,65</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>-3,52</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>118,45%</t>
-        </is>
-      </c>
-      <c r="K8" s="2" t="inlineStr">
-        <is>
-          <t>164,55%</t>
-        </is>
-      </c>
-      <c r="L8" s="2" t="inlineStr">
-        <is>
-          <t>158,54%</t>
-        </is>
-      </c>
-      <c r="M8" s="2" t="inlineStr">
-        <is>
-          <t>104,18%</t>
-        </is>
-      </c>
-      <c r="N8" s="2" t="inlineStr">
-        <is>
-          <t>-19,99%</t>
-        </is>
-      </c>
-      <c r="O8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="P8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>7.966507455481575</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>5.274265506875685</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>4.925561127217329</v>
+      </c>
+      <c r="F8" s="5" t="n">
+        <v>-0.1408096397763425</v>
+      </c>
+      <c r="G8" s="5" t="n">
+        <v>7.033939660680785</v>
+      </c>
+      <c r="H8" s="5" t="n">
+        <v>2.743577090563814</v>
+      </c>
+      <c r="I8" s="5" t="n">
+        <v>-1.725938625115604</v>
+      </c>
+      <c r="J8" s="6" t="n">
+        <v>0.7613817604600561</v>
+      </c>
+      <c r="K8" s="6" t="n">
+        <v>0.3680701127065415</v>
+      </c>
+      <c r="L8" s="6" t="n">
+        <v>0.4035207624811991</v>
+      </c>
+      <c r="M8" s="6" t="n">
+        <v>-0.0448571005612285</v>
+      </c>
+      <c r="N8" s="6" t="n">
+        <v>0.6227400819551551</v>
+      </c>
+      <c r="O8" s="6" t="n">
+        <v>0.1903084220071996</v>
+      </c>
+      <c r="P8" s="6" t="n">
+        <v>-0.1467376317813557</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>3,4; 20,07</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>3,23; 20,42</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>5,18; 21,44</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>1,94; 17,66</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>-21,37; 7,61</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>21,13; 348,55</t>
-        </is>
-      </c>
-      <c r="K9" s="2" t="inlineStr">
-        <is>
-          <t>23,53; 513,56</t>
-        </is>
-      </c>
-      <c r="L9" s="2" t="inlineStr">
-        <is>
-          <t>45,98; 505,17</t>
-        </is>
-      </c>
-      <c r="M9" s="2" t="inlineStr">
-        <is>
-          <t>9,59; 309,73</t>
-        </is>
-      </c>
-      <c r="N9" s="2" t="inlineStr">
-        <is>
-          <t>-72,79; 82,06</t>
-        </is>
-      </c>
-      <c r="O9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="P9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>17.06205614905575</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>14.80737870460394</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>13.55914022021175</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>10.88805167480006</v>
+      </c>
+      <c r="G9" s="5" t="n">
+        <v>16.12682425327077</v>
+      </c>
+      <c r="H9" s="5" t="n">
+        <v>17.59409691827408</v>
+      </c>
+      <c r="I9" s="5" t="n">
+        <v>9.122099540598349</v>
+      </c>
+      <c r="J9" s="6" t="n">
+        <v>3.128933544895249</v>
+      </c>
+      <c r="K9" s="6" t="n">
+        <v>1.987043193739869</v>
+      </c>
+      <c r="L9" s="6" t="n">
+        <v>1.829576567414686</v>
+      </c>
+      <c r="M9" s="6" t="n">
+        <v>1.126807232700217</v>
+      </c>
+      <c r="N9" s="6" t="n">
+        <v>2.474445016000744</v>
+      </c>
+      <c r="O9" s="6" t="n">
+        <v>2.380094731881309</v>
+      </c>
+      <c r="P9" s="6" t="n">
+        <v>1.329689381153643</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>Rural</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1146,157 +983,281 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>10,3</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>9,19</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>9,12</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>7,51</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>6,57</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>6,04</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>6,61</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>103,72%</t>
-        </is>
-      </c>
-      <c r="K10" s="2" t="inlineStr">
-        <is>
-          <t>89,21%</t>
-        </is>
-      </c>
-      <c r="L10" s="2" t="inlineStr">
-        <is>
-          <t>93,26%</t>
-        </is>
-      </c>
-      <c r="M10" s="2" t="inlineStr">
-        <is>
-          <t>67,38%</t>
-        </is>
-      </c>
-      <c r="N10" s="2" t="inlineStr">
-        <is>
-          <t>57,1%</t>
-        </is>
-      </c>
-      <c r="O10" s="2" t="inlineStr">
-        <is>
-          <t>52,44%</t>
-        </is>
-      </c>
-      <c r="P10" s="2" t="inlineStr">
-        <is>
-          <t>58,52%</t>
-        </is>
-      </c>
+      <c r="C10" s="5" t="n">
+        <v>11.14159511033145</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>13.03898968739602</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>12.68484356056782</v>
+      </c>
+      <c r="F10" s="5" t="n">
+        <v>9.531868461336481</v>
+      </c>
+      <c r="G10" s="5" t="n">
+        <v>-3.097316355571328</v>
+      </c>
+      <c r="H10" s="5" t="inlineStr"/>
+      <c r="I10" s="5" t="inlineStr"/>
+      <c r="J10" s="6" t="n">
+        <v>1.184485470232173</v>
+      </c>
+      <c r="K10" s="6" t="n">
+        <v>2.05833256348199</v>
+      </c>
+      <c r="L10" s="6" t="n">
+        <v>1.588747132291544</v>
+      </c>
+      <c r="M10" s="6" t="n">
+        <v>1.051820578723979</v>
+      </c>
+      <c r="N10" s="6" t="n">
+        <v>-0.1795762273705985</v>
+      </c>
+      <c r="O10" s="6" t="inlineStr"/>
+      <c r="P10" s="6" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>7,07; 13,21</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>5,96; 12,18</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>6,31; 11,64</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>4,33; 10,42</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>3,01; 9,97</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>2,54; 9,4</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>3,23; 10,05</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>58,54; 154,9</t>
-        </is>
-      </c>
-      <c r="K11" s="2" t="inlineStr">
-        <is>
-          <t>48,29; 135,23</t>
-        </is>
-      </c>
-      <c r="L11" s="2" t="inlineStr">
-        <is>
-          <t>57,96; 135,7</t>
-        </is>
-      </c>
-      <c r="M11" s="2" t="inlineStr">
-        <is>
-          <t>30,93; 108,76</t>
-        </is>
-      </c>
-      <c r="N11" s="2" t="inlineStr">
-        <is>
-          <t>20,2; 103,1</t>
-        </is>
-      </c>
-      <c r="O11" s="2" t="inlineStr">
-        <is>
-          <t>19,24; 94,77</t>
-        </is>
-      </c>
-      <c r="P11" s="2" t="inlineStr">
-        <is>
-          <t>24,35; 102,96</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>3.397128992666784</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>4.470776004147551</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>5.324367348886945</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>1.863594418810889</v>
+      </c>
+      <c r="G11" s="5" t="n">
+        <v>-21.20480227114324</v>
+      </c>
+      <c r="H11" s="5" t="inlineStr"/>
+      <c r="I11" s="5" t="inlineStr"/>
+      <c r="J11" s="6" t="n">
+        <v>0.2113223330360402</v>
+      </c>
+      <c r="K11" s="6" t="n">
+        <v>0.3763498179135684</v>
+      </c>
+      <c r="L11" s="6" t="n">
+        <v>0.4436258618062343</v>
+      </c>
+      <c r="M11" s="6" t="n">
+        <v>0.07156414484695485</v>
+      </c>
+      <c r="N11" s="6" t="n">
+        <v>-0.7298416554384572</v>
+      </c>
+      <c r="O11" s="6" t="inlineStr"/>
+      <c r="P11" s="6" t="inlineStr"/>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>20.06702867883892</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>21.68119753799633</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>21.24304922467723</v>
+      </c>
+      <c r="F12" s="5" t="n">
+        <v>17.11827888631032</v>
+      </c>
+      <c r="G12" s="5" t="n">
+        <v>8.09452325189922</v>
+      </c>
+      <c r="H12" s="5" t="inlineStr"/>
+      <c r="I12" s="5" t="inlineStr"/>
+      <c r="J12" s="6" t="n">
+        <v>3.485484264473239</v>
+      </c>
+      <c r="K12" s="6" t="n">
+        <v>6.318049564412577</v>
+      </c>
+      <c r="L12" s="6" t="n">
+        <v>4.775604011815821</v>
+      </c>
+      <c r="M12" s="6" t="n">
+        <v>3.048929832005647</v>
+      </c>
+      <c r="N12" s="6" t="n">
+        <v>0.9039958264278114</v>
+      </c>
+      <c r="O12" s="6" t="inlineStr"/>
+      <c r="P12" s="6" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C13" s="5" t="n">
+        <v>10.30286763322564</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>9.227708628125695</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>9.087105867816129</v>
+      </c>
+      <c r="F13" s="5" t="n">
+        <v>7.455713261146876</v>
+      </c>
+      <c r="G13" s="5" t="n">
+        <v>6.733522523790693</v>
+      </c>
+      <c r="H13" s="5" t="n">
+        <v>6.038640865463705</v>
+      </c>
+      <c r="I13" s="5" t="n">
+        <v>6.55087605895501</v>
+      </c>
+      <c r="J13" s="6" t="n">
+        <v>1.037167576771306</v>
+      </c>
+      <c r="K13" s="6" t="n">
+        <v>0.9090492376289626</v>
+      </c>
+      <c r="L13" s="6" t="n">
+        <v>0.9302692295536442</v>
+      </c>
+      <c r="M13" s="6" t="n">
+        <v>0.6701454904899593</v>
+      </c>
+      <c r="N13" s="6" t="n">
+        <v>0.5852409928228441</v>
+      </c>
+      <c r="O13" s="6" t="n">
+        <v>0.5243878176896041</v>
+      </c>
+      <c r="P13" s="6" t="n">
+        <v>0.5809977921477397</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>7.066949118564006</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>5.983126261948465</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>6.219369182103947</v>
+      </c>
+      <c r="F14" s="5" t="n">
+        <v>4.380522663025017</v>
+      </c>
+      <c r="G14" s="5" t="n">
+        <v>3.273404528828677</v>
+      </c>
+      <c r="H14" s="5" t="n">
+        <v>2.536991637410098</v>
+      </c>
+      <c r="I14" s="5" t="n">
+        <v>3.262139671352419</v>
+      </c>
+      <c r="J14" s="6" t="n">
+        <v>0.5853678557869036</v>
+      </c>
+      <c r="K14" s="6" t="n">
+        <v>0.4892881125707246</v>
+      </c>
+      <c r="L14" s="6" t="n">
+        <v>0.5688907853788127</v>
+      </c>
+      <c r="M14" s="6" t="n">
+        <v>0.3081752417763428</v>
+      </c>
+      <c r="N14" s="6" t="n">
+        <v>0.2076135251214556</v>
+      </c>
+      <c r="O14" s="6" t="n">
+        <v>0.1923528597078668</v>
+      </c>
+      <c r="P14" s="6" t="n">
+        <v>0.2427444389088919</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>13.21480271350555</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>12.38873130559295</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>11.56243855748057</v>
+      </c>
+      <c r="F15" s="5" t="n">
+        <v>10.45520058739017</v>
+      </c>
+      <c r="G15" s="5" t="n">
+        <v>10.26928619655391</v>
+      </c>
+      <c r="H15" s="5" t="n">
+        <v>9.401125809422226</v>
+      </c>
+      <c r="I15" s="5" t="n">
+        <v>9.91927100632536</v>
+      </c>
+      <c r="J15" s="6" t="n">
+        <v>1.549038054700232</v>
+      </c>
+      <c r="K15" s="6" t="n">
+        <v>1.404557335397193</v>
+      </c>
+      <c r="L15" s="6" t="n">
+        <v>1.354027596791619</v>
+      </c>
+      <c r="M15" s="6" t="n">
+        <v>1.094520412692057</v>
+      </c>
+      <c r="N15" s="6" t="n">
+        <v>1.057815433865158</v>
+      </c>
+      <c r="O15" s="6" t="n">
+        <v>0.9476769095453634</v>
+      </c>
+      <c r="P15" s="6" t="n">
+        <v>1.031440355119198</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
@@ -1305,12 +1266,12 @@
   </sheetData>
   <mergeCells count="7">
     <mergeCell ref="J1:P1"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A6:A7"/>
     <mergeCell ref="C1:I1"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
